--- a/biology/Zoologie/Camill_Heller/Camill_Heller.xlsx
+++ b/biology/Zoologie/Camill_Heller/Camill_Heller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camill Heller, né le 26 septembre 1823 près de Teplitz en royaume de Bohême et mort le 25 février 1917 à Innsbruck, est un zoologiste autrichien.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heller étudie la médecine et la zoologie à l'université de Vienne et reçoit son diplôme en 1849. Il est professeur de zoologie et d'anatomie comparée à l'université de Cracovie (alors possession autrichienne) de 1858 à 1863. De 1863 à 1894, il est professeur de zoologie à l'université d'Innsbruck.
 Il s'est intéressé particulièrement aux crustacés, mais a aussi étudié les Ectoprocta, Echinodermata, Pycnogonida et les Tunicata. Il a rédigé le IVe tome de la partie zoologique, concernant les crustacés, du rapport de l'expédition du Novara (1857-1859), intitulé Reise der Österreichischen Fregatte Novara um die Erde, in den Jahren 1857-1859 unter den Befehlen des Commodore B. von Wüllersstorf-Urbair [en français : Voyage de la frégate autrichienne Novara autour du monde, en 1857-1859, sous le commandement du capitaine B. von Wüllerstorf-Urbair.]
